--- a/tables/Tables.xlsx
+++ b/tables/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/SunflowerG/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4F717C-0C8E-C64B-8358-AA7D20EDE314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012C17E-7EAD-F64B-A6B6-FE18E60935E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52400" yWindow="4120" windowWidth="26340" windowHeight="20860" xr2:uid="{A59945F2-1735-8343-B6E6-3E6C808581F6}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="35840" windowHeight="20860" xr2:uid="{A59945F2-1735-8343-B6E6-3E6C808581F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tables/Tables.xlsx
+++ b/tables/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/SunflowerG/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012C17E-7EAD-F64B-A6B6-FE18E60935E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5AC708-A1E7-8E44-9F2A-A9425D250E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="35840" windowHeight="20860" xr2:uid="{A59945F2-1735-8343-B6E6-3E6C808581F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{A59945F2-1735-8343-B6E6-3E6C808581F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Variable</t>
   </si>
@@ -254,58 +257,131 @@
     <t>0.30 ± 0.0009</t>
   </si>
   <si>
+    <t># Pos.</t>
+  </si>
+  <si>
+    <t># Neg.</t>
+  </si>
+  <si>
+    <t>0.28 ± 0.0010</t>
+  </si>
+  <si>
+    <t>0.27 ± 0.0010</t>
+  </si>
+  <si>
+    <t>0.32 ± 0.0010</t>
+  </si>
+  <si>
+    <t>0.26 ± 0.001</t>
+  </si>
+  <si>
+    <t>0.39 ± 0.002</t>
+  </si>
+  <si>
+    <t># Herit.</t>
+  </si>
+  <si>
+    <t>Conventional</t>
+  </si>
+  <si>
+    <t>Tilled</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Tseas</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Pseas</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Table 1. Heritability and </t>
+      <t>NO</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
+        <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>Sclerotinia</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> incidence associations for alpha and beta diversity metrics. *** = p &lt; 0.001, ** = p &lt; 0.01, * = p &lt; 0.05, M = marginal p &lt; 0.1, from ANOVA or PERMANOVA.. Null results are means from 100 bootstraps. BC = Bray-Curtis dissimilarity.</t>
+      <t>-</t>
     </r>
   </si>
   <si>
-    <t># Pos.</t>
-  </si>
-  <si>
-    <t># Neg.</t>
-  </si>
-  <si>
-    <t>0.28 ± 0.0010</t>
-  </si>
-  <si>
-    <t>0.27 ± 0.0010</t>
-  </si>
-  <si>
-    <t>0.32 ± 0.0010</t>
-  </si>
-  <si>
-    <t>0.26 ± 0.001</t>
-  </si>
-  <si>
-    <t>0.39 ± 0.002</t>
-  </si>
-  <si>
-    <t># Herit.</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Tillage</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>(˚C)</t>
+  </si>
+  <si>
+    <t>(SD*100)</t>
+  </si>
+  <si>
+    <t>(mm)</t>
+  </si>
+  <si>
+    <t>(CV)</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>(ppm)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Table 2. Heritability and </t>
+      <t xml:space="preserve">Table 3. Heritability and </t>
     </r>
     <r>
       <rPr>
@@ -371,6 +447,35 @@
       <t xml:space="preserve"> that are also heritable.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 2. Heritability and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sclerotinia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> incidence associations for alpha and beta diversity metrics. *** = p &lt; 0.001, ** = p &lt; 0.01, * = p &lt; 0.05, M = marginal p &lt; 0.1, from ANOVA or PERMANOVA.. Null results are means from 100 bootstraps. BC = Bray-Curtis dissimilarity.</t>
+    </r>
+  </si>
+  <si>
+    <t>Table 1. Management practices, sample size, climate characteristics (from WorldClim2), and soil characteristics for the Carrington, North Dakota, U.S.A. research site.</t>
+  </si>
 </sst>
 </file>
 
@@ -379,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,8 +524,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +571,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -475,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -503,6 +649,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,6 +660,40 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,9 +713,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -570,7 +753,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -676,7 +859,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -818,7 +1001,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -826,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BE8B27-984F-094F-A1A9-FAF58373864D}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,76 +1023,137 @@
     <col min="4" max="4" width="2.5" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
+    <col min="19" max="20" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.1640625" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.5" customWidth="1"/>
+    <col min="33" max="33" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="H1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+    <row r="1" spans="1:37" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="15" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="13" t="s">
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
     </row>
-    <row r="3" spans="1:20" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -926,45 +1170,79 @@
       <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="8" t="s">
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>71</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -981,47 +1259,91 @@
       <c r="F4" s="1">
         <v>1E-3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1">
+      <c r="Z4" s="1">
         <v>1726</v>
       </c>
-      <c r="J4" s="9">
+      <c r="AA4" s="9">
         <v>1385</v>
       </c>
-      <c r="K4" s="10">
-        <f>J4/I4*100</f>
+      <c r="AB4" s="10">
+        <f>AA4/Z4*100</f>
         <v>80.243337195828502</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="AC4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="AE4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="9">
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="9">
         <v>243</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="AH4" s="9">
         <v>243</v>
       </c>
-      <c r="R4" s="10">
-        <f>P4/I4*100</f>
+      <c r="AI4" s="10">
+        <f>AG4/Z4*100</f>
         <v>14.078794901506372</v>
       </c>
-      <c r="S4" s="9">
+      <c r="AJ4" s="9">
         <v>97</v>
       </c>
-      <c r="T4" s="9">
+      <c r="AK4" s="9">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1038,47 +1360,91 @@
       <c r="F5" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21">
+        <v>368</v>
+      </c>
+      <c r="L5" s="21">
+        <v>368</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22">
+        <v>4.49</v>
+      </c>
+      <c r="O5" s="22">
+        <v>1277.03</v>
+      </c>
+      <c r="P5" s="21">
+        <v>452</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>64.56</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="21">
+        <v>16</v>
+      </c>
+      <c r="T5" s="21">
+        <v>3.65</v>
+      </c>
+      <c r="U5" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="V5" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="W5" s="21">
+        <v>16.5</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1">
+      <c r="Z5" s="1">
         <v>240</v>
       </c>
-      <c r="J5" s="9">
+      <c r="AA5" s="9">
         <v>222</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:K15" si="0">J5/I5*100</f>
+      <c r="AB5" s="10">
+        <f t="shared" ref="AB5:AB15" si="0">AA5/Z5*100</f>
         <v>92.5</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="AC5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="AE5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="9">
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="9">
         <v>30</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="AH5" s="9">
         <v>30</v>
       </c>
-      <c r="R5" s="10">
-        <f t="shared" ref="R5:R15" si="1">P5/I5*100</f>
+      <c r="AI5" s="10">
+        <f t="shared" ref="AI5:AI15" si="1">AG5/Z5*100</f>
         <v>12.5</v>
       </c>
-      <c r="S5" s="9">
+      <c r="AJ5" s="9">
         <v>15</v>
       </c>
-      <c r="T5" s="9">
+      <c r="AK5" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -1095,47 +1461,65 @@
       <c r="F6" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1">
+      <c r="Z6" s="1">
         <v>256</v>
       </c>
-      <c r="J6" s="9">
+      <c r="AA6" s="9">
         <v>169</v>
       </c>
-      <c r="K6" s="10">
+      <c r="AB6" s="10">
         <f t="shared" si="0"/>
         <v>66.015625</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="AC6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="AD6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="AE6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="9">
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="9">
         <v>41</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="AH6" s="9">
         <v>41</v>
       </c>
-      <c r="R6" s="10">
+      <c r="AI6" s="10">
         <f t="shared" si="1"/>
         <v>16.015625</v>
       </c>
-      <c r="S6" s="9">
+      <c r="AJ6" s="9">
         <v>14</v>
       </c>
-      <c r="T6" s="9">
+      <c r="AK6" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1152,47 +1536,65 @@
       <c r="F7" s="1">
         <v>0.01</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1">
+      <c r="Z7" s="1">
         <v>96</v>
       </c>
-      <c r="J7" s="9">
+      <c r="AA7" s="9">
         <v>84</v>
       </c>
-      <c r="K7" s="10">
+      <c r="AB7" s="10">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="AC7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="AD7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="AE7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="9">
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="9">
         <v>11</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="AH7" s="9">
         <v>11</v>
       </c>
-      <c r="R7" s="10">
+      <c r="AI7" s="10">
         <f t="shared" si="1"/>
         <v>11.458333333333332</v>
       </c>
-      <c r="S7" s="9">
+      <c r="AJ7" s="9">
         <v>2</v>
       </c>
-      <c r="T7" s="9">
+      <c r="AK7" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1209,47 +1611,65 @@
       <c r="F8" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="1">
+      <c r="Z8" s="1">
         <v>155</v>
       </c>
-      <c r="J8" s="9">
+      <c r="AA8" s="9">
         <v>104</v>
       </c>
-      <c r="K8" s="10">
+      <c r="AB8" s="10">
         <f t="shared" si="0"/>
         <v>67.096774193548399</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="AC8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="AD8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="AE8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="9">
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="9">
         <v>28</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="AH8" s="9">
         <v>28</v>
       </c>
-      <c r="R8" s="10">
+      <c r="AI8" s="10">
         <f t="shared" si="1"/>
         <v>18.064516129032256</v>
       </c>
-      <c r="S8" s="9">
+      <c r="AJ8" s="9">
         <v>10</v>
       </c>
-      <c r="T8" s="9">
+      <c r="AK8" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1266,47 +1686,65 @@
       <c r="F9" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="1">
+      <c r="Z9" s="1">
         <v>87</v>
       </c>
-      <c r="J9" s="9">
+      <c r="AA9" s="9">
         <v>77</v>
       </c>
-      <c r="K9" s="10">
+      <c r="AB9" s="10">
         <f t="shared" si="0"/>
         <v>88.505747126436788</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="AC9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="AD9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="AE9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="9">
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="9">
         <v>8</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="AH9" s="9">
         <v>8</v>
       </c>
-      <c r="R9" s="10">
+      <c r="AI9" s="10">
         <f t="shared" si="1"/>
         <v>9.1954022988505741</v>
       </c>
-      <c r="S9" s="9">
+      <c r="AJ9" s="9">
         <v>1</v>
       </c>
-      <c r="T9" s="9">
+      <c r="AK9" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1323,47 +1761,65 @@
       <c r="F10" s="1">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="1">
+      <c r="Z10" s="1">
         <v>127</v>
       </c>
-      <c r="J10" s="9">
+      <c r="AA10" s="9">
         <v>85</v>
       </c>
-      <c r="K10" s="10">
+      <c r="AB10" s="10">
         <f t="shared" si="0"/>
         <v>66.929133858267718</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="AC10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="AD10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="9">
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="9">
         <v>19</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="AH10" s="9">
         <v>19</v>
       </c>
-      <c r="R10" s="10">
+      <c r="AI10" s="10">
         <f t="shared" si="1"/>
         <v>14.960629921259844</v>
       </c>
-      <c r="S10" s="9">
+      <c r="AJ10" s="9">
         <v>9</v>
       </c>
-      <c r="T10" s="9">
+      <c r="AK10" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1371,7 +1827,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -1380,47 +1836,65 @@
       <c r="F11" s="1">
         <v>1.35E-2</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="1">
+      <c r="Z11" s="1">
         <v>43</v>
       </c>
-      <c r="J11" s="9">
+      <c r="AA11" s="9">
         <v>36</v>
       </c>
-      <c r="K11" s="10">
+      <c r="AB11" s="10">
         <f t="shared" si="0"/>
         <v>83.720930232558146</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="AC11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="AD11" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="AE11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="9">
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="9">
         <v>4</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="AH11" s="9">
         <v>4</v>
       </c>
-      <c r="R11" s="10">
+      <c r="AI11" s="10">
         <f t="shared" si="1"/>
         <v>9.3023255813953494</v>
       </c>
-      <c r="S11" s="9">
+      <c r="AJ11" s="9">
         <v>1</v>
       </c>
-      <c r="T11" s="9">
+      <c r="AK11" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1437,47 +1911,65 @@
       <c r="F12" s="1">
         <v>0.01</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="1">
+      <c r="Z12" s="1">
         <v>72</v>
       </c>
-      <c r="J12" s="9">
+      <c r="AA12" s="9">
         <v>45</v>
       </c>
-      <c r="K12" s="10">
+      <c r="AB12" s="10">
         <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="AC12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="9" t="s">
+      <c r="AD12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="9">
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="9">
         <v>10</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="AH12" s="9">
         <v>10</v>
       </c>
-      <c r="R12" s="10">
+      <c r="AI12" s="10">
         <f t="shared" si="1"/>
         <v>13.888888888888889</v>
       </c>
-      <c r="S12" s="9">
+      <c r="AJ12" s="9">
         <v>7</v>
       </c>
-      <c r="T12" s="9">
+      <c r="AK12" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -1494,136 +1986,159 @@
       <c r="F13" s="5">
         <v>1E-3</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="1">
+      <c r="Z13" s="1">
         <v>20</v>
       </c>
-      <c r="J13" s="9">
+      <c r="AA13" s="9">
         <v>14</v>
       </c>
-      <c r="K13" s="10">
+      <c r="AB13" s="10">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="AC13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="AD13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="AE13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="9">
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="9">
         <v>0</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="AH13" s="9">
         <v>0</v>
       </c>
-      <c r="R13" s="10">
+      <c r="AI13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13" s="9">
+      <c r="AJ13" s="9">
         <v>0</v>
       </c>
-      <c r="T13" s="9">
+      <c r="AK13" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H14" s="1" t="s">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Y14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="1">
+      <c r="Z14" s="1">
         <v>31</v>
       </c>
-      <c r="J14" s="9">
+      <c r="AA14" s="9">
         <v>16</v>
       </c>
-      <c r="K14" s="10">
+      <c r="AB14" s="10">
         <f t="shared" si="0"/>
         <v>51.612903225806448</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="AC14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="9" t="s">
+      <c r="AD14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="9">
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="9">
         <v>2</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="AH14" s="9">
         <v>2</v>
       </c>
-      <c r="R14" s="10">
+      <c r="AI14" s="10">
         <f t="shared" si="1"/>
         <v>6.4516129032258061</v>
       </c>
-      <c r="S14" s="9">
+      <c r="AJ14" s="9">
         <v>1</v>
       </c>
-      <c r="T14" s="9">
+      <c r="AK14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H15" s="5" t="s">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="Y15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="5">
+      <c r="Z15" s="5">
         <v>8</v>
       </c>
-      <c r="J15" s="11">
+      <c r="AA15" s="11">
         <v>6</v>
       </c>
-      <c r="K15" s="12">
+      <c r="AB15" s="12">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="AC15" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="11" t="s">
+      <c r="AD15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="11">
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="11">
         <v>0</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="AH15" s="11">
         <v>0</v>
       </c>
-      <c r="R15" s="12">
+      <c r="AI15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S15" s="11">
+      <c r="AJ15" s="11">
         <v>0</v>
       </c>
-      <c r="T15" s="11">
+      <c r="AK15" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="Y1:AK1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="H1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
